--- a/public/templates/departments.xlsx
+++ b/public/templates/departments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aacalderon\Temp\Datos Kapatax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65076E13-EA25-409C-AD18-E32A13A79AE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8542F2-8384-4303-BCCD-0F1170B94069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4635" windowWidth="29040" windowHeight="15840" xr2:uid="{943416E7-546D-4CE4-94F1-DC01AE91D5D6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Costos</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC55904F-E774-4CCF-96B3-FA7527839319}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,6 +776,78 @@
         <v>17</v>
       </c>
     </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
